--- a/CV_Apparant_Standard_Potential.xlsx
+++ b/CV_Apparant_Standard_Potential.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devin\Box\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DFE28A-B0A1-4FE0-A51A-E5846C81B22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA4FD33-9D62-43B5-86F8-5A23515B7768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="3780" windowWidth="18300" windowHeight="12405" xr2:uid="{CFD47A29-D0F7-4837-8561-FF057F143BCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CFD47A29-D0F7-4837-8561-FF057F143BCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Solver Install Instructions" sheetId="13" r:id="rId3"/>
     <sheet name="Solver Setup Instructions" sheetId="14" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="A">'Inputs and Calculations'!$C$8</definedName>
     <definedName name="A_U" localSheetId="1">'Inputs and Calculations'!$D$8</definedName>
@@ -907,10 +904,6 @@
     </r>
   </si>
   <si>
-    <t>(1) Krulic, D.; Fatouros, N.; Liu, D. A Complementary Survey of Staircase Voltammetry with Metal Ion Deposition on Macroelectrodes. J. Electroanal. Chem. 2015, 754, 30–39. https://doi.org/10.1016/j.jelechem.2015.06.012.
-(2) Rappleye, D.; Fuller, R. Improving the Improving the Calculation of Properties from Voltammetry Measurements of Electrodeposition in Molten Salts. J. Electrochem. Soc., 2023</t>
-  </si>
-  <si>
     <t>Sources:</t>
   </si>
   <si>
@@ -1198,6 +1191,10 @@
   <si>
     <t>1) Enter inputs, scan rate(s) and peak current(s)  (cells requiring input values are shaded green)</t>
   </si>
+  <si>
+    <t>(1) Krulic, D.; Fatouros, N.; Liu, D. A Complementary Survey of Staircase Voltammetry with Metal Ion Deposition on Macroelectrodes. J. Electroanal. Chem. 2015, 754, 30–39. https://doi.org/10.1016/j.jelechem.2015.06.012.
+(2) Rappleye, D. S.; Fuller, R. G. Bringing the Analysis of Electrodeposition Signals in Voltammetry Out of the Shadows. J. Electrochem. Soc. 2023, 170 (6), 063505. https://doi.org/10.1149/1945-7111/acd879.</t>
+  </si>
 </sst>
 </file>
 
@@ -1208,7 +1205,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -2027,7 +2024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2075,6 +2072,153 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="35" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="35" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="35" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2093,7 +2237,49 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2101,6 +2287,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2111,121 +2300,31 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="35" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2240,152 +2339,33 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="35" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="35" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3504,8 +3484,8 @@
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="894027" cy="328295"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -3777,7 +3757,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -3886,8 +3866,8 @@
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="879536" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -4099,7 +4079,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -4172,8 +4152,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1073691" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -4492,7 +4472,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -4565,8 +4545,8 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6616747" cy="376706"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -4608,6 +4588,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4622,7 +4603,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4635,7 +4616,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4649,7 +4630,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4663,7 +4644,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4735,7 +4716,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4747,7 +4728,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4759,7 +4740,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4773,7 +4754,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4786,7 +4767,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4800,7 +4781,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4813,7 +4794,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4829,7 +4810,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -4842,7 +4823,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -4854,7 +4835,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -4868,7 +4849,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -4886,7 +4867,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4900,7 +4881,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4915,7 +4896,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4928,7 +4909,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4940,7 +4921,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4954,7 +4935,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4970,7 +4951,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4986,7 +4967,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4999,7 +4980,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5013,7 +4994,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5026,7 +5007,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5040,7 +5021,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5054,7 +5035,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5067,7 +5048,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5082,7 +5063,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -5095,7 +5076,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -5111,7 +5092,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -5126,7 +5107,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -5139,7 +5120,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -5151,7 +5132,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -5165,7 +5146,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -5181,7 +5162,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -5199,7 +5180,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5215,7 +5196,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5229,7 +5210,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5242,7 +5223,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5256,7 +5237,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5270,7 +5251,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5283,7 +5264,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5297,7 +5278,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5310,7 +5291,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5324,7 +5305,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5346,7 +5327,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -5464,8 +5445,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1517082" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -5507,6 +5488,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5519,7 +5501,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5531,7 +5513,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5546,7 +5528,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5562,7 +5544,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5577,7 +5559,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5590,7 +5572,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5604,7 +5586,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5620,7 +5602,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5633,7 +5615,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5647,7 +5629,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5663,7 +5645,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5676,7 +5658,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5690,7 +5672,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5704,7 +5686,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5720,7 +5702,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5733,7 +5715,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5747,7 +5729,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5763,7 +5745,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5776,7 +5758,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5790,7 +5772,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -5810,7 +5792,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5823,7 +5805,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5837,7 +5819,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5851,7 +5833,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5865,7 +5847,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5878,7 +5860,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5892,7 +5874,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5906,7 +5888,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5922,7 +5904,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -5992,8 +5974,8 @@
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2475293" cy="316882"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -6035,6 +6017,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6049,7 +6032,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6062,7 +6045,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6076,7 +6059,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6090,7 +6073,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6104,7 +6087,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6117,7 +6100,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6131,7 +6114,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6145,7 +6128,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6159,7 +6142,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6172,7 +6155,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6186,7 +6169,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6200,7 +6183,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6214,7 +6197,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6227,7 +6210,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6241,7 +6224,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6255,7 +6238,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6269,7 +6252,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6282,7 +6265,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6322,7 +6305,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6336,7 +6319,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6349,7 +6332,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6363,7 +6346,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6380,7 +6363,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6392,7 +6375,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6406,7 +6389,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6419,7 +6402,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6433,7 +6416,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6447,7 +6430,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6461,7 +6444,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -8327,19 +8310,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Waveform_Respons"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8604,10 +8574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306F4928-D3F7-4445-BF86-F23301689133}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R58"/>
+  <dimension ref="B1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8615,80 +8585,56 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-    </row>
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="49"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
       <c r="M5" s="7"/>
       <c r="O5" s="5" t="s">
         <v>21</v>
@@ -8701,16 +8647,15 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="49"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
       <c r="M6" s="7"/>
       <c r="O6" s="5">
         <v>0</v>
@@ -8727,18 +8672,17 @@
     </row>
     <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
       <c r="M7" s="7"/>
       <c r="O7" s="5">
         <v>0</v>
@@ -8756,18 +8700,17 @@
     </row>
     <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="49"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
       <c r="M8" s="7"/>
       <c r="O8" s="5">
         <v>-2E-3</v>
@@ -8813,20 +8756,20 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="130"/>
       <c r="O10" s="5">
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -8845,22 +8788,15 @@
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
       <c r="M11" s="7"/>
       <c r="O11" s="5">
         <v>-4.0000000000000001E-3</v>
@@ -8875,22 +8811,15 @@
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
       <c r="M12" s="7"/>
       <c r="O12" s="5">
         <v>-6.0000000000000001E-3</v>
@@ -8905,22 +8834,15 @@
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
       <c r="M13" s="7"/>
       <c r="O13" s="5">
         <v>-6.0000000000000001E-3</v>
@@ -8935,22 +8857,15 @@
       <c r="B14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
       <c r="M14" s="7"/>
       <c r="O14" s="5">
         <v>-8.0000000000000002E-3</v>
@@ -8965,22 +8880,15 @@
       <c r="B15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
       <c r="M15" s="7"/>
       <c r="O15" s="5">
         <v>-8.0000000000000002E-3</v>
@@ -8995,177 +8903,125 @@
       <c r="B16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="66" t="s">
+      <c r="I18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
+      <c r="I20" s="22"/>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="42"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="130"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57" t="s">
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="75"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="76"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="52"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -9174,89 +9030,49 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="75"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="119"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="78"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="79"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="43"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
+      <c r="B29" s="39"/>
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="67"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
+      <c r="B30" s="39"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="67"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
+      <c r="B31" s="39"/>
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -9275,375 +9091,199 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
       <c r="M40" s="7"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
       <c r="M42" s="7"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
       <c r="M43" s="7"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
       <c r="M44" s="7"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
       <c r="M46" s="7"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
       <c r="M47" s="7"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
       <c r="M48" s="7"/>
     </row>
     <row r="49" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="68"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="112"/>
     </row>
     <row r="50" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="71"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="73"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="115"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="38"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="125"/>
     </row>
     <row r="52" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="64" t="s">
+      <c r="B52" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="39"/>
+      <c r="C52" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="126"/>
     </row>
     <row r="53" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="60"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="39"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="126"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="60"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="39"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="126"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="60"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="39"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
+      <c r="M55" s="126"/>
     </row>
     <row r="56" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
       <c r="L56" s="13"/>
       <c r="M56" s="14"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:C27">
@@ -9677,8 +9317,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9703,20 +9343,20 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="142"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
@@ -9725,20 +9365,20 @@
       <c r="S2" s="16"/>
     </row>
     <row r="3" spans="2:19" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99"/>
+      <c r="B3" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="145"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
@@ -9747,18 +9387,8 @@
       <c r="S3" s="16"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="101"/>
+      <c r="B4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -9767,18 +9397,18 @@
       <c r="S4" s="17"/>
     </row>
     <row r="5" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="104"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="148"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
@@ -9787,399 +9417,386 @@
       <c r="S5" s="17"/>
     </row>
     <row r="6" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="106"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="137"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="107"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="109"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="63">
         <f>0.2*PI()*1.247</f>
         <v>0.78351320780529443</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="112">
+      <c r="F8" s="64">
         <v>5.0300000000000003E-5</v>
       </c>
-      <c r="G8" s="113" t="s">
+      <c r="G8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="115">
+      <c r="I8" s="66">
         <v>1.5</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="116">
+      <c r="K8" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="67">
         <v>1.9400000000000001E-5</v>
       </c>
-      <c r="M8" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="93"/>
-      <c r="O8" s="159"/>
+      <c r="M8" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="56"/>
+      <c r="O8" s="102"/>
     </row>
     <row r="9" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="63">
         <v>96485</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="63">
         <v>238.02889999999999</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="117" t="s">
+      <c r="H9" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="63">
         <v>3</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="81" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="118">
+      <c r="L9" s="69">
         <v>8.3140000000000001</v>
       </c>
-      <c r="M9" s="119" t="s">
+      <c r="M9" s="70" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="63">
         <v>175</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="63">
+        <v>0.33</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="69">
+        <v>773</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="111">
-        <v>0.33</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="118">
-        <v>773</v>
-      </c>
-      <c r="J10" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="111">
+      <c r="L10" s="63">
         <v>1.8E-3</v>
       </c>
-      <c r="M10" s="101"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="2:19" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="63">
         <v>2.2399999999999998E-3</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="111">
+      <c r="F11" s="63">
         <v>18.899999999999999</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="121"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="102"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="159"/>
+      <c r="O11" s="102"/>
       <c r="P11" s="18"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="101"/>
+      <c r="B12" s="57"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="106"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="137"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="100"/>
-      <c r="C14" s="122" t="s">
+      <c r="B14" s="57"/>
+      <c r="C14" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="74">
         <f>e_*ρD/MW*2*rA*10^-10</f>
         <v>4.1686114585245745E-9</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="155">
+      <c r="G14" s="100">
         <f>n*F*ABS(ΔE)/R_/T</f>
         <v>0.10088801102646107</v>
       </c>
-      <c r="H14" s="125" t="s">
+      <c r="H14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="156">
+      <c r="I14" s="101">
         <f>COx/Γ*SQRT(DOx*R_*T/n/F/ν)</f>
         <v>25.042729422933764</v>
       </c>
-      <c r="J14" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="80">
+      <c r="J14" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="18">
         <f>(n*F)^(5/2)*Ru*A*COx*(DOx*ν)^(1/2)/(R_*T)^(3/2)</f>
         <v>1.5848839974276794</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="109"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
     </row>
     <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="107"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="109"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="162"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="134"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="128"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="78"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="63">
         <v>0.1</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="129" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="130">
+      <c r="E18" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="138"/>
+      <c r="G18" s="79">
         <v>-2.69</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="H18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="91">
+      <c r="I18" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="54">
         <f>Ep-eta-R_*T/n/F*LN(x_OX)</f>
         <v>-2.5025781095318584</v>
       </c>
-      <c r="K18" s="85" t="s">
+      <c r="K18" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="131"/>
+      <c r="L18" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="80"/>
     </row>
     <row r="19" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B19" s="132"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="133" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="134">
+      <c r="B19" s="81"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="138"/>
+      <c r="G19" s="38">
         <f>(-0.854-0.525*ρ-0.571*(1-EXP(-(ρ^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*ρ))-0.34/(χ*(1+0.65*ρ^2.7)))*R_*T/n/F</f>
         <v>-4.710066149846568E-2</v>
       </c>
-      <c r="H19" s="134" t="s">
+      <c r="H19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="92">
+      <c r="I19" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="55">
         <f>Ep-eta-R_*T/n/F*LN(COx)</f>
         <v>-2.4231466438894032</v>
       </c>
-      <c r="K19" s="88" t="s">
+      <c r="K19" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="135"/>
+      <c r="L19" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="82"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="132"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="101"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="2:19" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="162"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="134"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
@@ -10188,22 +9805,22 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="2:19" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="126"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127" t="s">
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="127" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="128"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="78"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
@@ -10212,32 +9829,32 @@
       <c r="S22" s="23"/>
     </row>
     <row r="23" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B23" s="100"/>
-      <c r="C23" s="122" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="154"/>
-      <c r="F23" s="138" t="s">
+      <c r="D23" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="131"/>
+      <c r="F23" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="140"/>
+      <c r="J23" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="87"/>
       <c r="N23" s="18"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -10245,457 +9862,450 @@
       <c r="R23" s="24"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="100"/>
-      <c r="C24" s="141">
+      <c r="B24" s="57"/>
+      <c r="C24" s="88">
         <v>0.05</v>
       </c>
-      <c r="D24" s="115">
+      <c r="D24" s="66">
         <v>-6.1645999999999999E-2</v>
       </c>
-      <c r="E24" s="142"/>
-      <c r="F24" s="143">
+      <c r="E24" s="89"/>
+      <c r="F24" s="90">
         <f t="shared" ref="F24:F33" si="0">COx/Γ*SQRT(DOx*R_*T/n/F/C24)</f>
         <v>35.415767588752679</v>
       </c>
-      <c r="G24" s="143">
-        <f>(n*F)^(5/2)*Ru*A*COx*(DOx*C24)^(1/2)/(R_*T)^(3/2)</f>
+      <c r="G24" s="90">
+        <f t="shared" ref="G24:G33" si="1">(n*F)^(5/2)*Ru*A*COx*(DOx*C24)^(1/2)/(R_*T)^(3/2)</f>
         <v>1.1206822219751547</v>
       </c>
-      <c r="H24" s="144">
-        <f>(-0.854-0.525*G24-0.571*(1-EXP(-(G24^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G24))-0.34/(F24*(1+0.65*G24^2.7)))*R_*T/n/F</f>
+      <c r="H24" s="91">
+        <f t="shared" ref="H24:H33" si="2">(-0.854-0.525*G24-0.571*(1-EXP(-(G24^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G24))-0.34/(F24*(1+0.65*G24^2.7)))*R_*T/n/F</f>
         <v>-4.0306066836537438E-2</v>
       </c>
-      <c r="I24" s="90">
-        <f>D24-H24-R_*T/n/F*LN(x_OX)</f>
+      <c r="I24" s="53">
+        <f t="shared" ref="I24:I33" si="3">D24-H24-R_*T/n/F*LN(x_OX)</f>
         <v>0.11898129580621342</v>
       </c>
-      <c r="J24" s="90">
-        <f>D24-H24-R_*T/n/F*LN(COx)</f>
+      <c r="J24" s="53">
+        <f t="shared" ref="J24:J33" si="4">D24-H24-R_*T/n/F*LN(COx)</f>
         <v>0.19841276144866854</v>
       </c>
-      <c r="K24" s="145"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="146"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="93"/>
       <c r="N24" s="18"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="100"/>
-      <c r="C25" s="141">
+      <c r="B25" s="57"/>
+      <c r="C25" s="88">
         <v>0.1</v>
       </c>
-      <c r="D25" s="115">
+      <c r="D25" s="66">
         <v>-7.0801000000000003E-2</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="143">
+      <c r="E25" s="89"/>
+      <c r="F25" s="90">
         <f t="shared" si="0"/>
         <v>25.042729422933764</v>
       </c>
-      <c r="G25" s="143">
-        <f>(n*F)^(5/2)*Ru*A*COx*(DOx*C25)^(1/2)/(R_*T)^(3/2)</f>
+      <c r="G25" s="90">
+        <f t="shared" si="1"/>
         <v>1.5848839974276794</v>
       </c>
-      <c r="H25" s="144">
-        <f>(-0.854-0.525*G25-0.571*(1-EXP(-(G25^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G25))-0.34/(F25*(1+0.65*G25^2.7)))*R_*T/n/F</f>
+      <c r="H25" s="91">
+        <f t="shared" si="2"/>
         <v>-4.710066149846568E-2</v>
       </c>
-      <c r="I25" s="90">
-        <f>D25-H25-R_*T/n/F*LN(x_OX)</f>
+      <c r="I25" s="53">
+        <f t="shared" si="3"/>
         <v>0.11662089046814164</v>
       </c>
-      <c r="J25" s="90">
-        <f>D25-H25-R_*T/n/F*LN(COx)</f>
+      <c r="J25" s="53">
+        <f t="shared" si="4"/>
         <v>0.19605235611059676</v>
       </c>
-      <c r="K25" s="145"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="146"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="93"/>
       <c r="N25" s="18"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="25"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="100"/>
-      <c r="C26" s="141">
+      <c r="B26" s="57"/>
+      <c r="C26" s="88">
         <v>0.15</v>
       </c>
-      <c r="D26" s="115">
+      <c r="D26" s="66">
         <v>-7.5378000000000001E-2</v>
       </c>
-      <c r="E26" s="142"/>
-      <c r="F26" s="143">
+      <c r="E26" s="89"/>
+      <c r="F26" s="90">
         <f t="shared" si="0"/>
         <v>20.447302950923586</v>
       </c>
-      <c r="G26" s="143">
-        <f>(n*F)^(5/2)*Ru*A*COx*(DOx*C26)^(1/2)/(R_*T)^(3/2)</f>
+      <c r="G26" s="90">
+        <f t="shared" si="1"/>
         <v>1.9410785476001506</v>
       </c>
-      <c r="H26" s="144">
-        <f>(-0.854-0.525*G26-0.571*(1-EXP(-(G26^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G26))-0.34/(F26*(1+0.65*G26^2.7)))*R_*T/n/F</f>
+      <c r="H26" s="91">
+        <f t="shared" si="2"/>
         <v>-5.1972763520774568E-2</v>
       </c>
-      <c r="I26" s="90">
-        <f>D26-H26-R_*T/n/F*LN(x_OX)</f>
+      <c r="I26" s="53">
+        <f t="shared" si="3"/>
         <v>0.11691599249045054</v>
       </c>
-      <c r="J26" s="90">
-        <f>D26-H26-R_*T/n/F*LN(COx)</f>
+      <c r="J26" s="53">
+        <f t="shared" si="4"/>
         <v>0.19634745813290566</v>
       </c>
-      <c r="K26" s="145"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="146"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="93"/>
       <c r="N26" s="18"/>
       <c r="Q26" s="24"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="149"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="100"/>
-      <c r="C27" s="141">
+      <c r="B27" s="57"/>
+      <c r="C27" s="88">
         <v>0.2</v>
       </c>
-      <c r="D27" s="115">
+      <c r="D27" s="66">
         <v>-7.7667E-2</v>
       </c>
-      <c r="E27" s="142"/>
-      <c r="F27" s="143">
+      <c r="E27" s="89"/>
+      <c r="F27" s="90">
         <f t="shared" si="0"/>
         <v>17.70788379437634</v>
       </c>
-      <c r="G27" s="143">
-        <f>(n*F)^(5/2)*Ru*A*COx*(DOx*C27)^(1/2)/(R_*T)^(3/2)</f>
+      <c r="G27" s="90">
+        <f t="shared" si="1"/>
         <v>2.2413644439503093</v>
       </c>
-      <c r="H27" s="144">
-        <f>(-0.854-0.525*G27-0.571*(1-EXP(-(G27^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G27))-0.34/(F27*(1+0.65*G27^2.7)))*R_*T/n/F</f>
+      <c r="H27" s="91">
+        <f t="shared" si="2"/>
         <v>-5.5893864738234683E-2</v>
       </c>
-      <c r="I27" s="90">
-        <f>D27-H27-R_*T/n/F*LN(x_OX)</f>
+      <c r="I27" s="53">
+        <f t="shared" si="3"/>
         <v>0.11854809370791065</v>
       </c>
-      <c r="J27" s="90">
-        <f>D27-H27-R_*T/n/F*LN(COx)</f>
+      <c r="J27" s="53">
+        <f t="shared" si="4"/>
         <v>0.19797955935036576</v>
       </c>
-      <c r="K27" s="145"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="146"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="93"/>
       <c r="N27" s="18"/>
       <c r="Q27" s="26"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="149"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="100"/>
-      <c r="C28" s="147">
+      <c r="B28" s="57"/>
+      <c r="C28" s="94">
         <v>0.25</v>
       </c>
-      <c r="D28" s="147">
+      <c r="D28" s="94">
         <v>-8.2244999999999999E-2</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="143">
+      <c r="E28" s="24"/>
+      <c r="F28" s="90">
         <f t="shared" si="0"/>
         <v>15.838412760756963</v>
       </c>
-      <c r="G28" s="143">
-        <f>(n*F)^(5/2)*Ru*A*COx*(DOx*C28)^(1/2)/(R_*T)^(3/2)</f>
+      <c r="G28" s="90">
+        <f t="shared" si="1"/>
         <v>2.5059216295119549</v>
       </c>
-      <c r="H28" s="144">
-        <f>(-0.854-0.525*G28-0.571*(1-EXP(-(G28^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G28))-0.34/(F28*(1+0.65*G28^2.7)))*R_*T/n/F</f>
+      <c r="H28" s="91">
+        <f t="shared" si="2"/>
         <v>-5.9241158831980521E-2</v>
       </c>
-      <c r="I28" s="90">
-        <f>D28-H28-R_*T/n/F*LN(x_OX)</f>
+      <c r="I28" s="53">
+        <f t="shared" si="3"/>
         <v>0.11731738780165649</v>
       </c>
-      <c r="J28" s="90">
-        <f>D28-H28-R_*T/n/F*LN(COx)</f>
+      <c r="J28" s="53">
+        <f t="shared" si="4"/>
         <v>0.19674885344411161</v>
       </c>
-      <c r="K28" s="145"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="146"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="93"/>
       <c r="N28" s="18"/>
       <c r="Q28" s="27"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="149"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="100"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="143" t="e">
+      <c r="B29" s="57"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="90" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="143">
-        <f>(n*F)^(5/2)*Ru*A*COx*(DOx*C29)^(1/2)/(R_*T)^(3/2)</f>
+      <c r="G29" s="90">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="144" t="e">
-        <f>(-0.854-0.525*G29-0.571*(1-EXP(-(G29^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G29))-0.34/(F29*(1+0.65*G29^2.7)))*R_*T/n/F</f>
+      <c r="H29" s="91" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="90" t="e">
-        <f>D29-H29-R_*T/n/F*LN(x_OX)</f>
+      <c r="I29" s="53" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="90" t="e">
-        <f>D29-H29-R_*T/n/F*LN(COx)</f>
+      <c r="J29" s="53" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="121"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="72"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="100"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="143" t="e">
+      <c r="B30" s="57"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="90" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="143">
-        <f>(n*F)^(5/2)*Ru*A*COx*(DOx*C30)^(1/2)/(R_*T)^(3/2)</f>
+      <c r="G30" s="90">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="144" t="e">
-        <f>(-0.854-0.525*G30-0.571*(1-EXP(-(G30^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G30))-0.34/(F30*(1+0.65*G30^2.7)))*R_*T/n/F</f>
+      <c r="H30" s="91" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="90" t="e">
-        <f>D30-H30-R_*T/n/F*LN(x_OX)</f>
+      <c r="I30" s="53" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="90" t="e">
-        <f>D30-H30-R_*T/n/F*LN(COx)</f>
+      <c r="J30" s="53" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="101"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="100"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="143" t="e">
+      <c r="B31" s="57"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="90" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="143">
-        <f>(n*F)^(5/2)*Ru*A*COx*(DOx*C31)^(1/2)/(R_*T)^(3/2)</f>
+      <c r="G31" s="90">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="144" t="e">
-        <f>(-0.854-0.525*G31-0.571*(1-EXP(-(G31^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G31))-0.34/(F31*(1+0.65*G31^2.7)))*R_*T/n/F</f>
+      <c r="H31" s="91" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="90" t="e">
-        <f>D31-H31-R_*T/n/F*LN(x_OX)</f>
+      <c r="I31" s="53" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="90" t="e">
-        <f>D31-H31-R_*T/n/F*LN(COx)</f>
+      <c r="J31" s="53" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="101"/>
+      <c r="M31" s="58"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="100"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="143" t="e">
+      <c r="B32" s="57"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="90" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="143">
-        <f>(n*F)^(5/2)*Ru*A*COx*(DOx*C32)^(1/2)/(R_*T)^(3/2)</f>
+      <c r="G32" s="90">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="144" t="e">
-        <f>(-0.854-0.525*G32-0.571*(1-EXP(-(G32^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G32))-0.34/(F32*(1+0.65*G32^2.7)))*R_*T/n/F</f>
+      <c r="H32" s="91" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="90" t="e">
-        <f>D32-H32-R_*T/n/F*LN(x_OX)</f>
+      <c r="I32" s="53" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="90" t="e">
-        <f>D32-H32-R_*T/n/F*LN(COx)</f>
+      <c r="J32" s="53" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="101"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B33" s="100"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="143" t="e">
+      <c r="B33" s="57"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="90" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="143">
-        <f>(n*F)^(5/2)*Ru*A*COx*(DOx*C33)^(1/2)/(R_*T)^(3/2)</f>
+      <c r="G33" s="90">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="144" t="e">
-        <f>(-0.854-0.525*G33-0.571*(1-EXP(-(G33^1.177)))+Δεs^0.467*(0.134-EXP(-(0.722+0.515/Δεs^0.5)*G33))-0.34/(F33*(1+0.65*G33^2.7)))*R_*T/n/F</f>
+      <c r="H33" s="91" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="90" t="e">
-        <f>D33-H33-R_*T/n/F*LN(x_OX)</f>
+      <c r="I33" s="53" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="90" t="e">
-        <f>D33-H33-R_*T/n/F*LN(COx)</f>
+      <c r="J33" s="53" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="101"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="58"/>
     </row>
     <row r="34" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="151"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="153"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="99"/>
     </row>
     <row r="35" spans="2:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="157"/>
-      <c r="K35" s="157"/>
-      <c r="L35" s="157"/>
-      <c r="M35" s="157"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="151"/>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B36" s="82" t="s">
-        <v>100</v>
+      <c r="B36" s="45" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B37" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
+      <c r="B37" s="152" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="47"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="152"/>
+      <c r="O38" s="150"/>
+      <c r="P38" s="150"/>
+      <c r="Q38" s="150"/>
+      <c r="R38" s="150"/>
+      <c r="S38" s="150"/>
+      <c r="T38" s="150"/>
+      <c r="U38" s="150"/>
+      <c r="V38" s="150"/>
+      <c r="W38" s="150"/>
+      <c r="X38" s="150"/>
+      <c r="Y38" s="150"/>
+      <c r="Z38" s="150"/>
+      <c r="AA38" s="150"/>
+      <c r="AB38" s="150"/>
+      <c r="AC38" s="150"/>
+      <c r="AD38" s="150"/>
+      <c r="AE38" s="150"/>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="150"/>
+      <c r="R39" s="150"/>
+      <c r="S39" s="150"/>
+      <c r="T39" s="150"/>
+      <c r="U39" s="150"/>
+      <c r="V39" s="150"/>
+      <c r="W39" s="150"/>
+      <c r="X39" s="150"/>
+      <c r="Y39" s="150"/>
+      <c r="Z39" s="150"/>
+      <c r="AA39" s="150"/>
+      <c r="AB39" s="150"/>
+      <c r="AC39" s="150"/>
+      <c r="AD39" s="150"/>
+      <c r="AE39" s="150"/>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="152"/>
+      <c r="M40" s="152"/>
     </row>
     <row r="45" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10707,6 +10317,7 @@
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="O38:AE39"/>
     <mergeCell ref="B35:M35"/>
+    <mergeCell ref="B37:M40"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B5:M5"/>
@@ -10717,7 +10328,6 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B37:M40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
